--- a/pg/三和/trunk/src/sanwa-main/FastAPI/app/templates/xlsx/Temp見積依頼書.xlsx
+++ b/pg/三和/trunk/src/sanwa-main/FastAPI/app/templates/xlsx/Temp見積依頼書.xlsx
@@ -787,6 +787,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -802,6 +811,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -849,90 +933,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1220,13 +1220,12 @@
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="13" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="13" width="3.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.25" style="45" customWidth="1"/>
     <col min="16" max="16" width="8.25" style="1" customWidth="1"/>
@@ -1614,54 +1613,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1670,20 +1669,20 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="62">
+      <c r="P3" s="90">
         <v>9999999</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1693,19 +1692,19 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1714,30 +1713,30 @@
       <c r="M5" s="5"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="10"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
@@ -1745,21 +1744,21 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1788,21 +1787,21 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="17"/>
       <c r="O10" s="12"/>
       <c r="P10" s="51" t="s">
@@ -1834,11 +1833,11 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1852,8 +1851,8 @@
       <c r="P12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
     </row>
     <row r="13" spans="1:20" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="23"/>
@@ -1871,47 +1870,47 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="77"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
       <c r="P15" s="25" t="s">
         <v>12</v>
       </c>
@@ -1920,49 +1919,49 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="79"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="80"/>
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="27"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="83"/>
     </row>
     <row r="18" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="23"/>
@@ -1980,55 +1979,55 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="85" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="95" t="s">
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="97" t="s">
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="96" t="s">
+      <c r="R19" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="94"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="30" t="s">
         <v>22</v>
       </c>
@@ -2038,23 +2037,23 @@
       <c r="P20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="96"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="60"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="32"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="33"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
@@ -2063,18 +2062,18 @@
     </row>
     <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="32"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="33"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
@@ -2083,18 +2082,18 @@
     </row>
     <row r="23" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="32"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="33"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
@@ -2103,18 +2102,18 @@
     </row>
     <row r="24" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="32"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="33"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
@@ -2123,18 +2122,18 @@
     </row>
     <row r="25" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="32"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="33"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
@@ -2143,18 +2142,18 @@
     </row>
     <row r="26" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="32"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="33"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -2163,18 +2162,18 @@
     </row>
     <row r="27" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="32"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="33"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
@@ -2183,18 +2182,18 @@
     </row>
     <row r="28" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="32"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="33"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
@@ -2203,18 +2202,18 @@
     </row>
     <row r="29" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="32"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="33"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
@@ -2223,18 +2222,18 @@
     </row>
     <row r="30" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="32"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="33"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
@@ -2243,18 +2242,18 @@
     </row>
     <row r="31" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="32"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="33"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
@@ -2263,18 +2262,18 @@
     </row>
     <row r="32" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="32"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="33"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
@@ -2283,18 +2282,18 @@
     </row>
     <row r="33" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="32"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="33"/>
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
@@ -2303,18 +2302,18 @@
     </row>
     <row r="34" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="32"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="33"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -2323,18 +2322,18 @@
     </row>
     <row r="35" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="32"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="33"/>
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
@@ -2343,18 +2342,18 @@
     </row>
     <row r="36" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="32"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="56"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="33"/>
       <c r="O36" s="34"/>
       <c r="P36" s="34"/>
@@ -2363,18 +2362,18 @@
     </row>
     <row r="37" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="32"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="33"/>
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
@@ -2383,18 +2382,18 @@
     </row>
     <row r="38" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="32"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="56"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="33"/>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
@@ -2403,18 +2402,18 @@
     </row>
     <row r="39" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="32"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="56"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="33"/>
       <c r="O39" s="34"/>
       <c r="P39" s="34"/>
@@ -2423,18 +2422,18 @@
     </row>
     <row r="40" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="32"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="56"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="33"/>
       <c r="O40" s="34"/>
       <c r="P40" s="34"/>
@@ -2443,18 +2442,18 @@
     </row>
     <row r="41" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="36"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="37"/>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
@@ -2462,26 +2461,26 @@
       <c r="R41" s="40"/>
     </row>
     <row r="42" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
     </row>
     <row r="43" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="41"/>
@@ -2616,13 +2615,76 @@
     <row r="84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:M20"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:M32"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:M39"/>
@@ -2639,76 +2701,13 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:M36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:M20"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:M40"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
